--- a/1. Projects_Assignment/12. e-University Database Project/DBMD University Project Sample Data (Optional).xlsx
+++ b/1. Projects_Assignment/12. e-University Database Project/DBMD University Project Sample Data (Optional).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CW\MSSQL\DBMD\0821\Project\university_new\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\DATA_SCIENCE_COURSE_NOTES\1. Projects_Assignment\12. e-University Database Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB644F6-83DC-41A1-8197-F5860DDEEDCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695D4D94-54D7-45C4-92CA-084EE883A31C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="70">
   <si>
     <t>StudentFirstName</t>
   </si>
@@ -190,13 +197,58 @@
   </si>
   <si>
     <t>Orange</t>
+  </si>
+  <si>
+    <t>StuName</t>
+  </si>
+  <si>
+    <t>StuID</t>
+  </si>
+  <si>
+    <t>StuRegion</t>
+  </si>
+  <si>
+    <t>StaffNu</t>
+  </si>
+  <si>
+    <t>CourCode</t>
+  </si>
+  <si>
+    <t>RegistDate</t>
+  </si>
+  <si>
+    <t>StaffName</t>
+  </si>
+  <si>
+    <t>StaffRegion</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Enrollment</t>
+  </si>
+  <si>
+    <t>PK,FK1</t>
+  </si>
+  <si>
+    <t>PK,FK2</t>
+  </si>
+  <si>
+    <t>Staff</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,16 +256,55 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -221,13 +312,86 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -508,18 +672,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="24.7109375" customWidth="1"/>
     <col min="8" max="8" width="14.7109375" customWidth="1"/>
@@ -541,7 +705,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -579,7 +743,7 @@
       <c r="C2" s="1">
         <v>43963</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E2" t="s">
@@ -617,7 +781,7 @@
       <c r="C3" s="1">
         <v>43963</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E3" t="s">
@@ -655,7 +819,7 @@
       <c r="C4" s="1">
         <v>43963</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E4" t="s">
@@ -693,7 +857,7 @@
       <c r="C5" s="1">
         <v>43963</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E5" t="s">
@@ -731,7 +895,7 @@
       <c r="C6" s="1">
         <v>43963</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E6" t="s">
@@ -769,7 +933,7 @@
       <c r="C7" s="1">
         <v>43963</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E7" t="s">
@@ -807,7 +971,7 @@
       <c r="C8" s="1">
         <v>43963</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E8" t="s">
@@ -845,7 +1009,7 @@
       <c r="C9" s="1">
         <v>43963</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E9" t="s">
@@ -883,7 +1047,7 @@
       <c r="C10" s="1">
         <v>43963</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E10" t="s">
@@ -906,7 +1070,7 @@
       <c r="C11" s="1">
         <v>43963</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E11" t="s">
@@ -1004,7 +1168,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H17" t="s">
         <v>47</v>
       </c>
@@ -1012,7 +1176,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H18" t="s">
         <v>45</v>
       </c>
@@ -1020,7 +1184,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H19" t="s">
         <v>42</v>
       </c>
@@ -1028,7 +1192,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H20" t="s">
         <v>46</v>
       </c>
@@ -1045,7 +1209,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J21" t="s">
         <v>34</v>
       </c>
@@ -1055,6 +1219,1112 @@
       <c r="L21" t="s">
         <v>33</v>
       </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="H22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" t="s">
+        <v>67</v>
+      </c>
+      <c r="H23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>1</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="10">
+        <v>43963</v>
+      </c>
+      <c r="E25" s="9">
+        <v>1</v>
+      </c>
+      <c r="G25" s="15">
+        <v>1</v>
+      </c>
+      <c r="H25" s="15">
+        <v>1</v>
+      </c>
+      <c r="I25" s="16">
+        <v>43963</v>
+      </c>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>2</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="10">
+        <v>43963</v>
+      </c>
+      <c r="E26" s="9">
+        <v>2</v>
+      </c>
+      <c r="G26" s="15">
+        <v>1</v>
+      </c>
+      <c r="H26" s="15">
+        <v>2</v>
+      </c>
+      <c r="I26" s="16">
+        <v>43963</v>
+      </c>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>3</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="10">
+        <v>43963</v>
+      </c>
+      <c r="E27" s="9">
+        <v>3</v>
+      </c>
+      <c r="G27" s="15">
+        <v>2</v>
+      </c>
+      <c r="H27" s="15">
+        <v>1</v>
+      </c>
+      <c r="I27" s="16">
+        <v>43963</v>
+      </c>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>4</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="10">
+        <v>43963</v>
+      </c>
+      <c r="E28" s="9">
+        <v>4</v>
+      </c>
+      <c r="G28" s="15">
+        <v>2</v>
+      </c>
+      <c r="H28" s="15">
+        <v>2</v>
+      </c>
+      <c r="I28" s="16">
+        <v>43963</v>
+      </c>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>5</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="10">
+        <v>43963</v>
+      </c>
+      <c r="E29" s="9">
+        <v>5</v>
+      </c>
+      <c r="G29" s="15">
+        <v>3</v>
+      </c>
+      <c r="H29" s="15">
+        <v>1</v>
+      </c>
+      <c r="I29" s="16">
+        <v>43963</v>
+      </c>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <v>6</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="10">
+        <v>43963</v>
+      </c>
+      <c r="E30" s="9">
+        <v>6</v>
+      </c>
+      <c r="G30" s="15">
+        <v>3</v>
+      </c>
+      <c r="H30" s="15">
+        <v>2</v>
+      </c>
+      <c r="I30" s="16">
+        <v>43963</v>
+      </c>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="D31" s="4"/>
+      <c r="G31" s="15">
+        <v>4</v>
+      </c>
+      <c r="H31" s="15">
+        <v>1</v>
+      </c>
+      <c r="I31" s="16">
+        <v>43963</v>
+      </c>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="D32" s="4"/>
+      <c r="G32" s="15">
+        <v>4</v>
+      </c>
+      <c r="H32" s="15">
+        <v>2</v>
+      </c>
+      <c r="I32" s="16">
+        <v>43963</v>
+      </c>
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>63</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
+        <v>1</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36"/>
+      <c r="F36" t="s">
+        <v>65</v>
+      </c>
+      <c r="H36" s="3"/>
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
+        <v>2</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37"/>
+      <c r="E37" t="s">
+        <v>63</v>
+      </c>
+      <c r="H37" s="3"/>
+      <c r="I37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
+        <v>3</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38"/>
+      <c r="E38" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
+        <v>4</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39"/>
+      <c r="E39" s="9">
+        <v>1</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H39" s="10">
+        <v>43963</v>
+      </c>
+      <c r="I39" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
+        <v>5</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40"/>
+      <c r="E40" s="9">
+        <v>2</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H40" s="10">
+        <v>43963</v>
+      </c>
+      <c r="I40" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
+        <v>6</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41"/>
+      <c r="E41" s="9">
+        <v>3</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" s="10">
+        <v>43963</v>
+      </c>
+      <c r="I41" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="7">
+        <v>7</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42"/>
+      <c r="E42" s="9">
+        <v>4</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H42" s="10">
+        <v>43963</v>
+      </c>
+      <c r="I42" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="7">
+        <v>8</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43"/>
+      <c r="E43" s="9">
+        <v>5</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" s="10">
+        <v>43963</v>
+      </c>
+      <c r="I43" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="7">
+        <v>9</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44"/>
+      <c r="E44" s="9">
+        <v>6</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H44" s="10">
+        <v>43963</v>
+      </c>
+      <c r="I44" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="D45"/>
+      <c r="J45" s="21"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="D46"/>
+      <c r="J46" s="21"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="D47"/>
+      <c r="J47" s="21"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+      <c r="B48" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48"/>
+      <c r="F48" t="s">
+        <v>40</v>
+      </c>
+      <c r="J48" s="21"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>63</v>
+      </c>
+      <c r="D49"/>
+      <c r="E49" t="s">
+        <v>63</v>
+      </c>
+      <c r="H49" t="s">
+        <v>64</v>
+      </c>
+      <c r="J49" s="21"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D50"/>
+      <c r="E50" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F50" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G50" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H50" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="J50" s="21"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="7">
+        <v>1</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D51"/>
+      <c r="E51" s="12">
+        <v>1</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G51" s="13">
+        <v>15</v>
+      </c>
+      <c r="H51" s="12">
+        <v>4</v>
+      </c>
+      <c r="J51" s="21"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="7">
+        <v>2</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D52"/>
+      <c r="E52" s="12">
+        <v>2</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G52" s="13">
+        <v>15</v>
+      </c>
+      <c r="H52" s="12">
+        <v>3</v>
+      </c>
+      <c r="J52" s="21"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="7">
+        <v>3</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53"/>
+      <c r="E53" s="12">
+        <v>3</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G53" s="13">
+        <v>30</v>
+      </c>
+      <c r="H53" s="12">
+        <v>7</v>
+      </c>
+      <c r="J53" s="21"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="7">
+        <v>4</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D54"/>
+      <c r="E54" s="12">
+        <v>4</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G54" s="13">
+        <v>30</v>
+      </c>
+      <c r="H54" s="12">
+        <v>5</v>
+      </c>
+      <c r="J54" s="21"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="7">
+        <v>5</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55"/>
+      <c r="E55" s="12">
+        <v>5</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G55" s="13">
+        <v>30</v>
+      </c>
+      <c r="H55" s="12">
+        <v>7</v>
+      </c>
+      <c r="J55" s="21"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="7">
+        <v>6</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D56"/>
+      <c r="E56" s="12">
+        <v>6</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G56" s="13">
+        <v>30</v>
+      </c>
+      <c r="H56" s="12">
+        <v>3</v>
+      </c>
+      <c r="J56" s="21"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="7">
+        <v>7</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57"/>
+      <c r="E57" s="12">
+        <v>7</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G57" s="13">
+        <v>30</v>
+      </c>
+      <c r="H57" s="12">
+        <v>5</v>
+      </c>
+      <c r="J57" s="21"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="7">
+        <v>8</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D58"/>
+      <c r="E58" s="12">
+        <v>8</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G58" s="13">
+        <v>30</v>
+      </c>
+      <c r="H58" s="12"/>
+      <c r="J58" s="21"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="7">
+        <v>9</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D59"/>
+      <c r="E59" s="12">
+        <v>9</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G59" s="13">
+        <v>30</v>
+      </c>
+      <c r="H59" s="12"/>
+      <c r="J59" s="21"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="2"/>
+      <c r="D60"/>
+      <c r="E60" s="12">
+        <v>10</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G60" s="13">
+        <v>30</v>
+      </c>
+      <c r="H60" s="12"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
+      <c r="D61"/>
+      <c r="E61" s="12">
+        <v>11</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G61" s="13">
+        <v>15</v>
+      </c>
+      <c r="H61" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="G62" s="2"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="G63" s="2"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="G64" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>63</v>
+      </c>
+      <c r="D65" t="s">
+        <v>64</v>
+      </c>
+      <c r="F65" t="s">
+        <v>67</v>
+      </c>
+      <c r="G65" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B66" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F66" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G66" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H66" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="12">
+        <v>1</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C67" s="13">
+        <v>15</v>
+      </c>
+      <c r="D67" s="12">
+        <v>4</v>
+      </c>
+      <c r="F67" s="15">
+        <v>1</v>
+      </c>
+      <c r="G67" s="15">
+        <v>1</v>
+      </c>
+      <c r="H67" s="16">
+        <v>43963</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="12">
+        <v>2</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C68" s="13">
+        <v>15</v>
+      </c>
+      <c r="D68" s="12">
+        <v>3</v>
+      </c>
+      <c r="F68" s="15">
+        <v>1</v>
+      </c>
+      <c r="G68" s="15">
+        <v>2</v>
+      </c>
+      <c r="H68" s="16">
+        <v>43963</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="12">
+        <v>3</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C69" s="13">
+        <v>30</v>
+      </c>
+      <c r="D69" s="12">
+        <v>7</v>
+      </c>
+      <c r="F69" s="15">
+        <v>2</v>
+      </c>
+      <c r="G69" s="15">
+        <v>1</v>
+      </c>
+      <c r="H69" s="16">
+        <v>43963</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="12">
+        <v>4</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C70" s="13">
+        <v>30</v>
+      </c>
+      <c r="D70" s="12">
+        <v>5</v>
+      </c>
+      <c r="F70" s="15">
+        <v>2</v>
+      </c>
+      <c r="G70" s="15">
+        <v>2</v>
+      </c>
+      <c r="H70" s="16">
+        <v>43963</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="12">
+        <v>5</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C71" s="13">
+        <v>30</v>
+      </c>
+      <c r="D71" s="12">
+        <v>7</v>
+      </c>
+      <c r="F71" s="15">
+        <v>3</v>
+      </c>
+      <c r="G71" s="15">
+        <v>1</v>
+      </c>
+      <c r="H71" s="16">
+        <v>43963</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="12">
+        <v>6</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C72" s="13">
+        <v>30</v>
+      </c>
+      <c r="D72" s="12">
+        <v>3</v>
+      </c>
+      <c r="F72" s="15">
+        <v>3</v>
+      </c>
+      <c r="G72" s="15">
+        <v>2</v>
+      </c>
+      <c r="H72" s="16">
+        <v>43963</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="12">
+        <v>7</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C73" s="13">
+        <v>30</v>
+      </c>
+      <c r="D73" s="12">
+        <v>5</v>
+      </c>
+      <c r="F73" s="15">
+        <v>4</v>
+      </c>
+      <c r="G73" s="15">
+        <v>1</v>
+      </c>
+      <c r="H73" s="16">
+        <v>43963</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="12">
+        <v>8</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C74" s="13">
+        <v>30</v>
+      </c>
+      <c r="D74" s="12"/>
+      <c r="F74" s="15">
+        <v>4</v>
+      </c>
+      <c r="G74" s="15">
+        <v>2</v>
+      </c>
+      <c r="H74" s="16">
+        <v>43963</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="12">
+        <v>9</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C75" s="13">
+        <v>30</v>
+      </c>
+      <c r="D75" s="12"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="12">
+        <v>10</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C76" s="13">
+        <v>30</v>
+      </c>
+      <c r="D76" s="12"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="12">
+        <v>11</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C77" s="13">
+        <v>15</v>
+      </c>
+      <c r="D77" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C78" s="11"/>
+      <c r="D78"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C79" s="11"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C80" s="11"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K18">
@@ -1064,5 +2334,6 @@
     <sortCondition ref="J2:J18"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/1. Projects_Assignment/12. e-University Database Project/DBMD University Project Sample Data (Optional).xlsx
+++ b/1. Projects_Assignment/12. e-University Database Project/DBMD University Project Sample Data (Optional).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\DATA_SCIENCE_COURSE_NOTES\1. Projects_Assignment\12. e-University Database Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695D4D94-54D7-45C4-92CA-084EE883A31C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E620A024-FD00-4E87-989B-5CABB4EA56D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="71">
   <si>
     <t>StudentFirstName</t>
   </si>
@@ -242,6 +242,9 @@
   </si>
   <si>
     <t>Staff</t>
+  </si>
+  <si>
+    <t>Quota</t>
   </si>
 </sst>
 </file>
@@ -675,7 +678,7 @@
   <dimension ref="A1:L80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1753,7 +1756,7 @@
       <c r="E49" t="s">
         <v>63</v>
       </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
         <v>64</v>
       </c>
       <c r="J49" s="21"/>
@@ -1779,6 +1782,9 @@
         <v>4</v>
       </c>
       <c r="H50" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="I50" s="17" t="s">
         <v>58</v>
       </c>
       <c r="J50" s="21"/>
@@ -1803,7 +1809,8 @@
       <c r="G51" s="13">
         <v>15</v>
       </c>
-      <c r="H51" s="12">
+      <c r="H51" s="12"/>
+      <c r="I51" s="12">
         <v>4</v>
       </c>
       <c r="J51" s="21"/>
@@ -1828,7 +1835,8 @@
       <c r="G52" s="13">
         <v>15</v>
       </c>
-      <c r="H52" s="12">
+      <c r="H52" s="12"/>
+      <c r="I52" s="12">
         <v>3</v>
       </c>
       <c r="J52" s="21"/>
@@ -1853,7 +1861,8 @@
       <c r="G53" s="13">
         <v>30</v>
       </c>
-      <c r="H53" s="12">
+      <c r="H53" s="12"/>
+      <c r="I53" s="12">
         <v>7</v>
       </c>
       <c r="J53" s="21"/>
@@ -1878,7 +1887,8 @@
       <c r="G54" s="13">
         <v>30</v>
       </c>
-      <c r="H54" s="12">
+      <c r="H54" s="12"/>
+      <c r="I54" s="12">
         <v>5</v>
       </c>
       <c r="J54" s="21"/>
@@ -1903,7 +1913,8 @@
       <c r="G55" s="13">
         <v>30</v>
       </c>
-      <c r="H55" s="12">
+      <c r="H55" s="12"/>
+      <c r="I55" s="12">
         <v>7</v>
       </c>
       <c r="J55" s="21"/>
@@ -1928,7 +1939,8 @@
       <c r="G56" s="13">
         <v>30</v>
       </c>
-      <c r="H56" s="12">
+      <c r="H56" s="12"/>
+      <c r="I56" s="12">
         <v>3</v>
       </c>
       <c r="J56" s="21"/>
@@ -1953,7 +1965,8 @@
       <c r="G57" s="13">
         <v>30</v>
       </c>
-      <c r="H57" s="12">
+      <c r="H57" s="12"/>
+      <c r="I57" s="12">
         <v>5</v>
       </c>
       <c r="J57" s="21"/>
@@ -1979,6 +1992,7 @@
         <v>30</v>
       </c>
       <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
       <c r="J58" s="21"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -2002,6 +2016,7 @@
         <v>30</v>
       </c>
       <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
       <c r="J59" s="21"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -2017,6 +2032,7 @@
         <v>30</v>
       </c>
       <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
@@ -2030,7 +2046,8 @@
       <c r="G61" s="13">
         <v>15</v>
       </c>
-      <c r="H61" s="12">
+      <c r="H61" s="12"/>
+      <c r="I61" s="12">
         <v>8</v>
       </c>
     </row>
